--- a/downloaded_files/EPES403_Tutorial-35881.xlsx
+++ b/downloaded_files/EPES403_Tutorial-35881.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -40,6 +40,15 @@
   </x:si>
   <x:si>
     <x:t>Ossama Khaled Hussein EzzElDin Zaki</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210131</x:t>
+  </x:si>
+  <x:si>
+    <x:t>باكينام حاتم حافظ شعبان السيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>pakiname hatem hafez chaaban</x:t>
   </x:si>
   <x:si>
     <x:t>1210216</x:t>
@@ -200,7 +209,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E7" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E8" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -500,7 +509,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T7"/>
+  <x:dimension ref="A1:T8"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -510,7 +519,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="26.150625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="38.120625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -623,7 +632,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45913.3456099537</x:v>
+        <x:v>45919.6735257292</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -655,7 +664,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45913.3597771644</x:v>
+        <x:v>45913.3456099537</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -687,7 +696,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45913.3528381944</x:v>
+        <x:v>45913.3597771644</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -719,7 +728,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45913.3487594907</x:v>
+        <x:v>45913.3528381944</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -751,7 +760,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45913.3470935532</x:v>
+        <x:v>45913.3487594907</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -768,6 +777,38 @@
       <x:c r="R7" s="2" t="s"/>
       <x:c r="S7" s="2" t="s"/>
       <x:c r="T7" s="2" t="s"/>
+    </x:row>
+    <x:row r="8" spans="1:20">
+      <x:c r="A8" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="E8" s="3">
+        <x:v>45913.3470935532</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="s"/>
+      <x:c r="G8" s="2" t="s"/>
+      <x:c r="H8" s="2" t="s"/>
+      <x:c r="I8" s="2" t="s"/>
+      <x:c r="J8" s="2" t="s"/>
+      <x:c r="K8" s="2" t="s"/>
+      <x:c r="L8" s="2" t="s"/>
+      <x:c r="M8" s="2" t="s"/>
+      <x:c r="N8" s="2" t="s"/>
+      <x:c r="O8" s="2" t="s"/>
+      <x:c r="P8" s="2" t="s"/>
+      <x:c r="Q8" s="2" t="s"/>
+      <x:c r="R8" s="2" t="s"/>
+      <x:c r="S8" s="2" t="s"/>
+      <x:c r="T8" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES403_Tutorial-35881.xlsx
+++ b/downloaded_files/EPES403_Tutorial-35881.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -94,6 +94,24 @@
   </x:si>
   <x:si>
     <x:t>abdelhaleem mohamed yaseen ahmed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210058</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عبد الله اشرف فاروق قاسم قاسم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Abdullah Ashraf Farouk Kassem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210089</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يحيى عزب محمد محمد العزب الباجوري</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yahia azab mohamed mohamed alazab albagoury</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -209,7 +227,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E8" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -509,7 +527,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T8"/>
+  <x:dimension ref="A1:T10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -517,8 +535,8 @@
   <x:cols>
     <x:col min="1" max="1" width="9.190625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="26.150625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="38.120625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="29.420625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="43.960625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
@@ -810,6 +828,70 @@
       <x:c r="S8" s="2" t="s"/>
       <x:c r="T8" s="2" t="s"/>
     </x:row>
+    <x:row r="9" spans="1:20">
+      <x:c r="A9" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E9" s="3">
+        <x:v>45927.5025721412</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="s"/>
+      <x:c r="G9" s="2" t="s"/>
+      <x:c r="H9" s="2" t="s"/>
+      <x:c r="I9" s="2" t="s"/>
+      <x:c r="J9" s="2" t="s"/>
+      <x:c r="K9" s="2" t="s"/>
+      <x:c r="L9" s="2" t="s"/>
+      <x:c r="M9" s="2" t="s"/>
+      <x:c r="N9" s="2" t="s"/>
+      <x:c r="O9" s="2" t="s"/>
+      <x:c r="P9" s="2" t="s"/>
+      <x:c r="Q9" s="2" t="s"/>
+      <x:c r="R9" s="2" t="s"/>
+      <x:c r="S9" s="2" t="s"/>
+      <x:c r="T9" s="2" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:20">
+      <x:c r="A10" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E10" s="3">
+        <x:v>45927.414603125</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="s"/>
+      <x:c r="G10" s="2" t="s"/>
+      <x:c r="H10" s="2" t="s"/>
+      <x:c r="I10" s="2" t="s"/>
+      <x:c r="J10" s="2" t="s"/>
+      <x:c r="K10" s="2" t="s"/>
+      <x:c r="L10" s="2" t="s"/>
+      <x:c r="M10" s="2" t="s"/>
+      <x:c r="N10" s="2" t="s"/>
+      <x:c r="O10" s="2" t="s"/>
+      <x:c r="P10" s="2" t="s"/>
+      <x:c r="Q10" s="2" t="s"/>
+      <x:c r="R10" s="2" t="s"/>
+      <x:c r="S10" s="2" t="s"/>
+      <x:c r="T10" s="2" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.18" right="0.18" top="0.6" bottom="0.6" header="0.3" footer="0.3"/>

--- a/downloaded_files/EPES403_Tutorial-35881.xlsx
+++ b/downloaded_files/EPES403_Tutorial-35881.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,6 +85,15 @@
   </x:si>
   <x:si>
     <x:t>Sohaila amr abdelaziz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1200347</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سهيله احمد سليمان عبدالرحمن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sohaila ahmed Soliman Abdelrahman</x:t>
   </x:si>
   <x:si>
     <x:t>1210387</x:t>
@@ -227,7 +236,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E10" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -527,7 +536,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T10"/>
+  <x:dimension ref="A1:T11"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -810,7 +819,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45913.3470935532</x:v>
+        <x:v>45928.5482366898</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -842,7 +851,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.5025721412</x:v>
+        <x:v>45913.3470935532</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -874,7 +883,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.414603125</x:v>
+        <x:v>45927.5025721412</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -891,6 +900,38 @@
       <x:c r="R10" s="2" t="s"/>
       <x:c r="S10" s="2" t="s"/>
       <x:c r="T10" s="2" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:20">
+      <x:c r="A11" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="E11" s="3">
+        <x:v>45927.414603125</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="s"/>
+      <x:c r="G11" s="2" t="s"/>
+      <x:c r="H11" s="2" t="s"/>
+      <x:c r="I11" s="2" t="s"/>
+      <x:c r="J11" s="2" t="s"/>
+      <x:c r="K11" s="2" t="s"/>
+      <x:c r="L11" s="2" t="s"/>
+      <x:c r="M11" s="2" t="s"/>
+      <x:c r="N11" s="2" t="s"/>
+      <x:c r="O11" s="2" t="s"/>
+      <x:c r="P11" s="2" t="s"/>
+      <x:c r="Q11" s="2" t="s"/>
+      <x:c r="R11" s="2" t="s"/>
+      <x:c r="S11" s="2" t="s"/>
+      <x:c r="T11" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES403_Tutorial-35881.xlsx
+++ b/downloaded_files/EPES403_Tutorial-35881.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Ziad mohamed mahmoud abdel al Hussien</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210230</x:t>
+  </x:si>
+  <x:si>
+    <x:t>زياد مصطفي ابراهيم عبده الريس</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZEIAD MOSTAFA IBRAHIM ABDOU ELRAYES</x:t>
   </x:si>
   <x:si>
     <x:t>1210240</x:t>
@@ -236,7 +245,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E11" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -536,7 +545,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T11"/>
+  <x:dimension ref="A1:T12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -787,7 +796,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45913.3487594907</x:v>
+        <x:v>45932.3038470255</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -819,7 +828,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45928.5482366898</x:v>
+        <x:v>45913.3487594907</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -851,7 +860,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45913.3470935532</x:v>
+        <x:v>45928.5482366898</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -883,7 +892,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.5025721412</x:v>
+        <x:v>45913.3470935532</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -915,7 +924,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.414603125</x:v>
+        <x:v>45927.5025721412</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -932,6 +941,38 @@
       <x:c r="R11" s="2" t="s"/>
       <x:c r="S11" s="2" t="s"/>
       <x:c r="T11" s="2" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:20">
+      <x:c r="A12" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E12" s="3">
+        <x:v>45927.414603125</x:v>
+      </x:c>
+      <x:c r="F12" s="2" t="s"/>
+      <x:c r="G12" s="2" t="s"/>
+      <x:c r="H12" s="2" t="s"/>
+      <x:c r="I12" s="2" t="s"/>
+      <x:c r="J12" s="2" t="s"/>
+      <x:c r="K12" s="2" t="s"/>
+      <x:c r="L12" s="2" t="s"/>
+      <x:c r="M12" s="2" t="s"/>
+      <x:c r="N12" s="2" t="s"/>
+      <x:c r="O12" s="2" t="s"/>
+      <x:c r="P12" s="2" t="s"/>
+      <x:c r="Q12" s="2" t="s"/>
+      <x:c r="R12" s="2" t="s"/>
+      <x:c r="S12" s="2" t="s"/>
+      <x:c r="T12" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EPES403_Tutorial-35881.xlsx
+++ b/downloaded_files/EPES403_Tutorial-35881.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,12 @@
   </x:si>
   <x:si>
     <x:t>pakiname hatem hafez chaaban</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4250459</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تيما غسان الراعى</x:t>
   </x:si>
   <x:si>
     <x:t>1210216</x:t>
@@ -245,7 +251,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E12" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E13" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -545,7 +551,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T12"/>
+  <x:dimension ref="A1:T13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -696,11 +702,9 @@
       <x:c r="C4" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="D4" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
+      <x:c r="D4" s="2" t="s"/>
       <x:c r="E4" s="3">
-        <x:v>45913.3456099537</x:v>
+        <x:v>45935.7907480324</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -723,16 +727,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B5" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s">
+      <x:c r="D5" s="2" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
       <x:c r="E5" s="3">
-        <x:v>45913.3597771644</x:v>
+        <x:v>45913.3456099537</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -755,16 +759,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B6" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="C6" s="2" t="s">
+      <x:c r="D6" s="2" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="E6" s="3">
-        <x:v>45913.3528381944</x:v>
+        <x:v>45913.3597771644</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -787,16 +791,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B7" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="C7" s="2" t="s">
+      <x:c r="D7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
       <x:c r="E7" s="3">
-        <x:v>45932.3038470255</x:v>
+        <x:v>45913.3528381944</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -819,16 +823,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="D8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
       <x:c r="E8" s="3">
-        <x:v>45913.3487594907</x:v>
+        <x:v>45932.3038470255</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -851,16 +855,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="D9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="E9" s="3">
-        <x:v>45928.5482366898</x:v>
+        <x:v>45913.3487594907</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -883,16 +887,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C10" s="2" t="s">
+      <x:c r="D10" s="2" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="E10" s="3">
-        <x:v>45913.3470935532</x:v>
+        <x:v>45928.5482366898</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -915,16 +919,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B11" s="2" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C11" s="2" t="s">
+      <x:c r="D11" s="2" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>34</x:v>
-      </x:c>
       <x:c r="E11" s="3">
-        <x:v>45927.5025721412</x:v>
+        <x:v>45913.3470935532</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -947,16 +951,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="C12" s="2" t="s">
+      <x:c r="D12" s="2" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="D12" s="2" t="s">
-        <x:v>37</x:v>
-      </x:c>
       <x:c r="E12" s="3">
-        <x:v>45927.414603125</x:v>
+        <x:v>45927.5025721412</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -973,6 +977,38 @@
       <x:c r="R12" s="2" t="s"/>
       <x:c r="S12" s="2" t="s"/>
       <x:c r="T12" s="2" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:20">
+      <x:c r="A13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E13" s="3">
+        <x:v>45927.414603125</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="s"/>
+      <x:c r="G13" s="2" t="s"/>
+      <x:c r="H13" s="2" t="s"/>
+      <x:c r="I13" s="2" t="s"/>
+      <x:c r="J13" s="2" t="s"/>
+      <x:c r="K13" s="2" t="s"/>
+      <x:c r="L13" s="2" t="s"/>
+      <x:c r="M13" s="2" t="s"/>
+      <x:c r="N13" s="2" t="s"/>
+      <x:c r="O13" s="2" t="s"/>
+      <x:c r="P13" s="2" t="s"/>
+      <x:c r="Q13" s="2" t="s"/>
+      <x:c r="R13" s="2" t="s"/>
+      <x:c r="S13" s="2" t="s"/>
+      <x:c r="T13" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
